--- a/2025/10/2025-10-29/29_fixtures.xlsx
+++ b/2025/10/2025-10-29/29_fixtures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,11 +488,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.FC Köln - Bayern Munich : 18:45</t>
+          <t>1.FC Köln - Bayern Munich ✓: 1:4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.74</v>
+        <v>1.91</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -507,6 +507,17 @@
           <t>74%</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -516,11 +527,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arsenal FC  - Brighton &amp; Hove Albion: 18:45</t>
+          <t>Arsenal FC ✓ - Brighton &amp; Hove Albion: 2:0</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.49</v>
+        <v>2.46</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -535,6 +546,17 @@
           <t>74%</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -544,15 +566,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FC Lorient - Paris Saint-Germain : -:-'</t>
+          <t>Olympiacos Piraeus ✓ - Volos NPS: 5:0</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.65</v>
+        <v>2.15</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Paris Saint-Germain</t>
+          <t>Olympiacos Piraeus</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -560,8 +582,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>72%</t>
-        </is>
+          <t>73%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -572,15 +605,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ferencvárosi TC  - Békéscsaba 1912 Elöre SE: -:-'</t>
+          <t>PAOK Thessaloniki ✓ - AE Larisa: 4:1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.11</v>
+        <v>2.29</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Ferencvárosi TC</t>
+          <t>PAOK Thessaloniki</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -588,8 +621,19 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>71%</t>
-        </is>
+          <t>72%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -600,24 +644,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Olympiacos Piraeus  - Volos NPS: 14:30</t>
+          <t>Ferencvárosi TC ✓ - Békéscsaba 1912 Elöre SE: 4:0</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Olympiacos Piraeus</t>
+          <t>Ferencvárosi TC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>70%</t>
-        </is>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -628,24 +683,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Thimphu City FC  - BFF Academy FC: -:-'</t>
+          <t>Inter Milan ✓ - ACF Fiorentina: 3:0</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3.03</v>
+        <v>2.5</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Thimphu City FC</t>
+          <t>Inter Milan</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>70%</t>
-        </is>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -660,7 +726,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -672,7 +738,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>69%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -695,23 +761,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Inter Milan  - ACF Fiorentina: 18:45</t>
+          <t>Thimphu City FC  - BFF Academy FC: -:-'</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.49</v>
+        <v>3.03</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Inter Milan</t>
+          <t>Thimphu City FC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>69%</t>
+          <t>70%</t>
         </is>
       </c>
     </row>
@@ -723,23 +789,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PAOK Thessaloniki  - AE Larisa: 18:30</t>
+          <t>FC Lorient - Paris Saint-Germain : 1:1</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.17</v>
+        <v>3.28</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PAOK Thessaloniki</t>
+          <t>Paris Saint-Germain</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>70%</t>
         </is>
       </c>
     </row>
@@ -751,15 +817,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bolívar La Paz  - Club Aurora: 22:00</t>
+          <t>Hebar Pazardzhik - Levski Sofia ✓: 0:3</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.97</v>
+        <v>2.94</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Bolívar La Paz</t>
+          <t>Levski Sofia</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -767,8 +833,19 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>67%</t>
-        </is>
+          <t>68%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -779,23 +856,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FC Differdange 03  - Racing FC Union Luxembourg: -:-'</t>
+          <t>Bolívar La Paz  - Club Aurora: 22:00</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.46</v>
+        <v>2.97</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FC Differdange 03</t>
+          <t>Bolívar La Paz</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>67%</t>
         </is>
       </c>
     </row>
@@ -807,24 +884,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FC Basel 1893  - FC Zürich: 18:30</t>
+          <t>Celtic FC ✓ - Falkirk FC: 4:0</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3.58</v>
+        <v>2.82</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FC Basel 1893</t>
+          <t>Celtic FC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>61%</t>
-        </is>
+          <t>66%</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -835,15 +923,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Esperance Tunis  - Club Athlétique Bizertin: 12:30</t>
+          <t>FC Differdange 03 ✓ - Racing FC Union Luxembourg: 5:1</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Esperance Tunis</t>
+          <t>FC Differdange 03</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -851,8 +939,19 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>61%</t>
-        </is>
+          <t>63%</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -863,24 +962,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HNK Cibalia Vinkovci - HNK Hajduk Split : 0:0'</t>
+          <t>FC Basel 1893 ✓ - FC Zürich: 2:0</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.5</v>
+        <v>3.52</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HNK Hajduk Split</t>
+          <t>FC Basel 1893</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>60%</t>
-        </is>
+          <t>61%</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -891,15 +1001,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Al-Shorta SC  - Al-Karma: 14:00</t>
+          <t>Esperance Tunis  - Club Athlétique Bizertin: 12:30</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Al-Shorta SC</t>
+          <t>Esperance Tunis</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -907,7 +1017,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>61%</t>
         </is>
       </c>
     </row>
@@ -919,15 +1029,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Paide Linnameeskond  - Jalgpallikool Tammeka: 2:0'</t>
+          <t>Swansea City - Manchester City ✓: 1:3</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.69</v>
+        <v>2.35</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Paide Linnameeskond</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -935,8 +1045,19 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>59%</t>
-        </is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -947,24 +1068,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SL Benfica  - CD Tondela: 19:45</t>
+          <t>SC Braga ✓ - CD Santa Clara: 5:0</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2.02</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SL Benfica</t>
+          <t>SC Braga</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>59%</t>
-        </is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -975,15 +1107,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Hebar Pazardzhik - Levski Sofia ✓: 0:3</t>
+          <t>Paide Linnameeskond ✓ - Jalgpallikool Tammeka: 3:0</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2.98</v>
+        <v>2.69</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Levski Sofia</t>
+          <t>Paide Linnameeskond</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1014,19 +1146,19 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SC Braga  - CD Santa Clara: 18:15</t>
+          <t>SL Benfica  - CD Tondela: 19:45</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.82</v>
+        <v>2.02</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SC Braga</t>
+          <t>SL Benfica</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1042,7 +1174,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Floriana FC  - Hamrun Spartans: -:-'</t>
+          <t>Floriana FC X - Hamrun Spartans: 1:3</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1061,6 +1193,17 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1070,15 +1213,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SL Benfica  - FC Alverca: 19:45</t>
+          <t>Aarhus GF ✓ - Sönderjyske Fodbold: 2:1</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2.69</v>
+        <v>2.72</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SL Benfica</t>
+          <t>Aarhus GF</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1086,8 +1229,19 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>57%</t>
-        </is>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1098,15 +1252,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Celtic FC  - Falkirk FC: 18:45</t>
+          <t>SL Benfica  - FC Alverca: 19:45</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2.72</v>
+        <v>2.69</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Celtic FC</t>
+          <t>SL Benfica</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1126,24 +1280,35 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FK Auda - Riga FC : -:-'</t>
+          <t>AS Roma ✓ - Parma Calcio 1913: 2:1</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2.05</v>
+        <v>1.69</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Riga FC</t>
+          <t>AS Roma</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>56%</t>
-        </is>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1154,24 +1319,35 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Aarhus GF  - Sönderjyske Fodbold: 18:45</t>
+          <t>KS Besa ✓ - FK Kukësi: 3:1</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2.75</v>
+        <v>1.02</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Aarhus GF</t>
+          <t>KS Besa</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>55%</t>
-        </is>
+          <t>54%</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1182,24 +1358,35 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>St. Mirren FC - Heart of Midlothian FC : 18:45</t>
+          <t>Venezia FC ✓ - FC Südtirol: 3:0</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2.78</v>
+        <v>1.63</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Heart of Midlothian FC</t>
+          <t>Venezia FC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>54%</t>
-        </is>
+          <t>53%</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1210,15 +1397,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>KS Besa ✓ - FK Kukësi: 3:1</t>
+          <t>FC Goa ✓ - Inter Kashi FC: 3:0</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.02</v>
+        <v>1.72</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>KS Besa</t>
+          <t>FC Goa</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1226,7 +1413,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>53%</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1235,98 +1422,31 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I27" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Wed Oct 29</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Swansea City - Manchester City : 18:45</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Manchester City</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>53%</t>
-        </is>
+      <c r="K28">
+        <f>COUNTIF(I:I,TRUE)</f>
+        <v/>
+      </c>
+      <c r="L28">
+        <f>(K28/K30)*100</f>
+        <v/>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Wed Oct 29</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>FC Goa ✓ - Inter Kashi FC: 3:0</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>FC Goa</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>52%</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>3</v>
-      </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="K29">
+        <f>COUNTIF(I:I,FALSE)</f>
+        <v/>
       </c>
     </row>
     <row r="30">
       <c r="K30">
-        <f>COUNTIF(I:I,TRUE)</f>
-        <v/>
-      </c>
-      <c r="L30">
-        <f>(K30/K32)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31">
-      <c r="K31">
-        <f>COUNTIF(I:I,FALSE)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32">
-      <c r="K32">
-        <f>K30+K31</f>
+        <f>K28+K29</f>
         <v/>
       </c>
     </row>
